--- a/Curves.xlsx
+++ b/Curves.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>class</t>
   </si>
@@ -107,19 +107,22 @@
     <t>id5</t>
   </si>
   <si>
-    <t>id6</t>
-  </si>
-  <si>
-    <t>id7</t>
-  </si>
-  <si>
-    <t>id8</t>
-  </si>
-  <si>
-    <t>id9</t>
-  </si>
-  <si>
-    <t>id10</t>
+    <t>circle_semi_open_small</t>
+  </si>
+  <si>
+    <t>circle_semi_open_medium</t>
+  </si>
+  <si>
+    <t>circle_semi_open_large</t>
+  </si>
+  <si>
+    <t>M66,34 C66,16.326888 51.673112,2 34,2 C16.326888,2 2,16.326888 2,34</t>
+  </si>
+  <si>
+    <t>M34,18 C34,9.163444 26.836556,2 18,2 C9.163444,2 2,9.163444 2,18</t>
+  </si>
+  <si>
+    <t>M18,10 C18,5.581722 14.418278,2 10,2 C5.581722,2 2,5.581722 2,10</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,9 +577,18 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
@@ -590,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -603,9 +615,18 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
@@ -619,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -632,9 +653,18 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
@@ -648,157 +678,12 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9">
-        <v>16</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10">
-        <v>16</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
         <v>19</v>
       </c>
     </row>
